--- a/statuses.xlsx
+++ b/statuses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VStudio\ASKUEwebMAPproject\ASKUEwebMAPproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VStudio\Web-ASKUE\Web-ASKUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8730427-E462-40E7-9E92-FACCB0C8A351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80938437-62BB-442A-989F-51AB427262E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -70,13 +70,175 @@
   </si>
   <si>
     <t>broken</t>
+  </si>
+  <si>
+    <t>ТП-1007</t>
+  </si>
+  <si>
+    <t>ТП-975</t>
+  </si>
+  <si>
+    <t>ПС Саранская</t>
+  </si>
+  <si>
+    <t>ТП-4202</t>
+  </si>
+  <si>
+    <t>ТП-235</t>
+  </si>
+  <si>
+    <t>ТП-810</t>
+  </si>
+  <si>
+    <t>ТП-323</t>
+  </si>
+  <si>
+    <t>ТП-126</t>
+  </si>
+  <si>
+    <t>ТП-103</t>
+  </si>
+  <si>
+    <t>ТП-716</t>
+  </si>
+  <si>
+    <t>ТП-655</t>
+  </si>
+  <si>
+    <t>ТП-514</t>
+  </si>
+  <si>
+    <t>ТП-501</t>
+  </si>
+  <si>
+    <t>ТП-1006</t>
+  </si>
+  <si>
+    <t>ТП-748</t>
+  </si>
+  <si>
+    <t>ТП-734</t>
+  </si>
+  <si>
+    <t>ТП-483</t>
+  </si>
+  <si>
+    <t>ТП-1601</t>
+  </si>
+  <si>
+    <t>53.225943</t>
+  </si>
+  <si>
+    <t>53.132275</t>
+  </si>
+  <si>
+    <t>53.213516</t>
+  </si>
+  <si>
+    <t>53.216520</t>
+  </si>
+  <si>
+    <t>53.187277</t>
+  </si>
+  <si>
+    <t>53.162137</t>
+  </si>
+  <si>
+    <t>53.179738</t>
+  </si>
+  <si>
+    <t>53.186745</t>
+  </si>
+  <si>
+    <t>53.187057</t>
+  </si>
+  <si>
+    <t>53.221502</t>
+  </si>
+  <si>
+    <t>53.212070</t>
+  </si>
+  <si>
+    <t>53.223762</t>
+  </si>
+  <si>
+    <t>53.222079</t>
+  </si>
+  <si>
+    <t>53.227979</t>
+  </si>
+  <si>
+    <t>53.185989</t>
+  </si>
+  <si>
+    <t>53.179583</t>
+  </si>
+  <si>
+    <t>53.174287</t>
+  </si>
+  <si>
+    <t>53.177028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.034362</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.023593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.019180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.002215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.009420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.008207</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.029185</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.058372</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.057354</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44.994577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.005180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.042828</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.046036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.038318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.009899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.016279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.018929</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45.062604</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,18 +247,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0F1115"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF0F1115"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,14 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -413,69 +584,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
